--- a/docs/reports/Report_MW_Navigations.xlsx
+++ b/docs/reports/Report_MW_Navigations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\LE00038\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TA\matrix-web-fe-tests\docs\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFACC04E-1D72-4570-9420-A104418D9DA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1746C8-9CB1-498D-9193-56C0CDE7B5F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15900" tabRatio="896" xr2:uid="{83F72AC4-B475-4A60-81FE-A957F55E1918}"/>
   </bookViews>
@@ -365,16 +365,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -746,7 +746,7 @@
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D54" sqref="D54"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,7 +793,7 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="7">
         <f>D18</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D3" s="5">
         <f>E18</f>
@@ -816,17 +816,17 @@
       <c r="C4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="21" t="e">
+      <c r="D4" s="21">
         <f>D3/$C$3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E4" s="20" t="e">
+        <v>0</v>
+      </c>
+      <c r="E4" s="20">
         <f t="shared" ref="E4:F4" si="0">E3/$C$3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F4" s="20" t="e">
+        <v>0</v>
+      </c>
+      <c r="F4" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G4" s="21" t="e">
         <f>G3/$C$3</f>
@@ -959,7 +959,7 @@
       <c r="A11" s="26">
         <v>1</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="9" t="str">
@@ -1003,7 +1003,7 @@
       <c r="A12" s="26">
         <v>1</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="30" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="9" t="str">
@@ -1047,7 +1047,7 @@
       <c r="A13" s="26">
         <v>1</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="9" t="str">
@@ -1089,7 +1089,7 @@
       <c r="A14" s="26">
         <v>1</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="9" t="str">
@@ -1131,7 +1131,7 @@
       <c r="A15" s="26">
         <v>1</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="30" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="9" t="str">
@@ -1173,7 +1173,7 @@
       <c r="A16" s="26">
         <v>1</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="30" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="9" t="str">
@@ -1215,7 +1215,7 @@
       <c r="A17" s="26">
         <v>1</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="30" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="9" t="str">
@@ -1254,41 +1254,41 @@
       </c>
     </row>
     <row r="18" spans="1:12" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="24">
-        <f>SUM(D9:D9)</f>
-        <v>0</v>
+        <f>SUM(D9:D17)</f>
+        <v>14</v>
       </c>
       <c r="E18" s="24">
-        <f>SUM(E9:E9)</f>
+        <f>SUM(E9:E17)</f>
         <v>0</v>
       </c>
       <c r="F18" s="24">
-        <f>SUM(F9:F9)</f>
+        <f>SUM(F9:F17)</f>
         <v>0</v>
       </c>
       <c r="G18" s="24">
-        <f>SUM(G9:G9)</f>
+        <f>SUM(G9:G17)</f>
         <v>0</v>
       </c>
       <c r="H18" s="24" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I18" s="25" t="e">
+      <c r="I18" s="25">
         <f>E18/D18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J18" s="25" t="e">
+        <v>0</v>
+      </c>
+      <c r="J18" s="25">
         <f>F18/D18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K18" s="25" t="e">
+        <v>0</v>
+      </c>
+      <c r="K18" s="25">
         <f>G18/D18</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="L18" s="25" t="e">
         <f t="shared" ref="L18" si="8">H18/D18</f>
@@ -1329,12 +1329,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4CC4A3791A662489B933DCE278ED9EF" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1d351c8bae9503a674d5e918810dcd44">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="181236b5-734f-48d7-9705-1caf32a498ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2248fde6c30a2cffba19c8b5d271a5ad" ns3:_="">
     <xsd:import namespace="181236b5-734f-48d7-9705-1caf32a498ff"/>
@@ -1512,6 +1506,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68293338-B565-439A-94CC-EAFE4BA1AF8F}">
   <ds:schemaRefs>
@@ -1521,22 +1521,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{655DB771-77BE-4CAC-8E6B-689F7EC99628}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="181236b5-734f-48d7-9705-1caf32a498ff"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C945D8A9-5771-40CB-B9B4-CC69662F48BA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1552,4 +1536,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{655DB771-77BE-4CAC-8E6B-689F7EC99628}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="181236b5-734f-48d7-9705-1caf32a498ff"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/reports/Report_MW_Navigations.xlsx
+++ b/docs/reports/Report_MW_Navigations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TA\matrix-web-fe-tests\docs\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\eul0711\Documents\GitHub\matrix-web-fe-tests\docs\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1746C8-9CB1-498D-9193-56C0CDE7B5F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A4A7D8-47AD-4B49-BA59-94E12D5C4B69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15900" tabRatio="896" xr2:uid="{83F72AC4-B475-4A60-81FE-A957F55E1918}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15780" tabRatio="896" xr2:uid="{83F72AC4-B475-4A60-81FE-A957F55E1918}"/>
   </bookViews>
   <sheets>
     <sheet name="Funzionalità 29.01" sheetId="9" r:id="rId1"/>
@@ -746,7 +746,7 @@
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D54" sqref="D54"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,9 +807,9 @@
         <f>G18</f>
         <v>0</v>
       </c>
-      <c r="G3" s="28" t="e">
+      <c r="G3" s="28">
         <f>H18</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -828,9 +828,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="21" t="e">
+      <c r="G4" s="21">
         <f>G3/$C$3</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="15" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -892,9 +892,9 @@
       <c r="G9" s="5">
         <v>0</v>
       </c>
-      <c r="H9" s="5" t="e">
-        <f>IF('Funzionalità 29.01'!#REF!-#REF!&lt;0, 0, 'Funzionalità 29.01'!#REF!-#REF!)</f>
-        <v>#REF!</v>
+      <c r="H9" s="5">
+        <f>IF('Funzionalità 29.01'!D9-D9&lt;0, 0, 'Funzionalità 29.01'!D9-D9)</f>
+        <v>0</v>
       </c>
       <c r="I9" s="17" t="e">
         <f>E9/D9</f>
@@ -910,7 +910,7 @@
       </c>
       <c r="L9" s="17" t="e">
         <f>H9/D9</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -934,9 +934,9 @@
       <c r="G10" s="29">
         <v>0</v>
       </c>
-      <c r="H10" s="29" t="e">
-        <f>IF('Funzionalità 29.01'!#REF!-#REF!&lt;0, 0, 'Funzionalità 29.01'!#REF!-#REF!)</f>
-        <v>#REF!</v>
+      <c r="H10" s="29">
+        <f>IF('Funzionalità 29.01'!D10-D10&lt;0, 0, 'Funzionalità 29.01'!D10-D10)</f>
+        <v>0</v>
       </c>
       <c r="I10" s="17" t="e">
         <f>E10/D10</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="L10" s="17" t="e">
         <f>H10/D10</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -978,9 +978,9 @@
       <c r="G11" s="29">
         <v>0</v>
       </c>
-      <c r="H11" s="29" t="e">
-        <f>IF('Funzionalità 29.01'!#REF!-#REF!&lt;0, 0, 'Funzionalità 29.01'!#REF!-#REF!)</f>
-        <v>#REF!</v>
+      <c r="H11" s="29">
+        <f>IF('Funzionalità 29.01'!D11-D11&lt;0, 0, 'Funzionalità 29.01'!D11-D11)</f>
+        <v>0</v>
       </c>
       <c r="I11" s="17">
         <f t="shared" ref="I11:I17" si="4">E11/D11</f>
@@ -994,9 +994,9 @@
         <f t="shared" ref="K11:K17" si="6">G11/D11</f>
         <v>0</v>
       </c>
-      <c r="L11" s="17" t="e">
+      <c r="L11" s="17">
         <f t="shared" ref="L11:L17" si="7">H11/D11</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1022,9 +1022,9 @@
       <c r="G12" s="29">
         <v>0</v>
       </c>
-      <c r="H12" s="29" t="e">
-        <f>IF('Funzionalità 29.01'!#REF!-#REF!&lt;0, 0, 'Funzionalità 29.01'!#REF!-#REF!)</f>
-        <v>#REF!</v>
+      <c r="H12" s="29">
+        <f>IF('Funzionalità 29.01'!D12-D12&lt;0, 0, 'Funzionalità 29.01'!D12-D12)</f>
+        <v>0</v>
       </c>
       <c r="I12" s="17">
         <f t="shared" si="4"/>
@@ -1038,9 +1038,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L12" s="17" t="e">
+      <c r="L12" s="17">
         <f t="shared" si="7"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1064,9 +1064,9 @@
       <c r="G13" s="29">
         <v>0</v>
       </c>
-      <c r="H13" s="29" t="e">
-        <f>IF('Funzionalità 29.01'!#REF!-#REF!&lt;0, 0, 'Funzionalità 29.01'!#REF!-#REF!)</f>
-        <v>#REF!</v>
+      <c r="H13" s="29">
+        <f>IF('Funzionalità 29.01'!D13-D13&lt;0, 0, 'Funzionalità 29.01'!D13-D13)</f>
+        <v>0</v>
       </c>
       <c r="I13" s="17" t="e">
         <f t="shared" si="4"/>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="L13" s="17" t="e">
         <f t="shared" si="7"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1106,9 +1106,9 @@
       <c r="G14" s="29">
         <v>0</v>
       </c>
-      <c r="H14" s="29" t="e">
-        <f>IF('Funzionalità 29.01'!#REF!-#REF!&lt;0, 0, 'Funzionalità 29.01'!#REF!-#REF!)</f>
-        <v>#REF!</v>
+      <c r="H14" s="29">
+        <f>IF('Funzionalità 29.01'!D14-D14&lt;0, 0, 'Funzionalità 29.01'!D14-D14)</f>
+        <v>0</v>
       </c>
       <c r="I14" s="17" t="e">
         <f t="shared" si="4"/>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="L14" s="17" t="e">
         <f t="shared" si="7"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1148,9 +1148,9 @@
       <c r="G15" s="29">
         <v>0</v>
       </c>
-      <c r="H15" s="29" t="e">
-        <f>IF('Funzionalità 29.01'!#REF!-#REF!&lt;0, 0, 'Funzionalità 29.01'!#REF!-#REF!)</f>
-        <v>#REF!</v>
+      <c r="H15" s="29">
+        <f>IF('Funzionalità 29.01'!D15-D15&lt;0, 0, 'Funzionalità 29.01'!D15-D15)</f>
+        <v>0</v>
       </c>
       <c r="I15" s="17" t="e">
         <f t="shared" si="4"/>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="L15" s="17" t="e">
         <f t="shared" si="7"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1190,9 +1190,9 @@
       <c r="G16" s="29">
         <v>0</v>
       </c>
-      <c r="H16" s="29" t="e">
-        <f>IF('Funzionalità 29.01'!#REF!-#REF!&lt;0, 0, 'Funzionalità 29.01'!#REF!-#REF!)</f>
-        <v>#REF!</v>
+      <c r="H16" s="29">
+        <f>IF('Funzionalità 29.01'!D16-D16&lt;0, 0, 'Funzionalità 29.01'!D16-D16)</f>
+        <v>0</v>
       </c>
       <c r="I16" s="17" t="e">
         <f t="shared" si="4"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="L16" s="17" t="e">
         <f t="shared" si="7"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1232,9 +1232,9 @@
       <c r="G17" s="29">
         <v>0</v>
       </c>
-      <c r="H17" s="29" t="e">
-        <f>IF('Funzionalità 29.01'!#REF!-#REF!&lt;0, 0, 'Funzionalità 29.01'!#REF!-#REF!)</f>
-        <v>#REF!</v>
+      <c r="H17" s="29">
+        <f>IF('Funzionalità 29.01'!D17-D17&lt;0, 0, 'Funzionalità 29.01'!D17-D17)</f>
+        <v>0</v>
       </c>
       <c r="I17" s="17" t="e">
         <f t="shared" si="4"/>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="L17" s="17" t="e">
         <f t="shared" si="7"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1274,9 +1274,9 @@
         <f>SUM(G9:G17)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="24" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="H18" s="29">
+        <f>IF('Funzionalità 29.01'!D18-D18&lt;0, 0, 'Funzionalità 29.01'!D18-D18)</f>
+        <v>0</v>
       </c>
       <c r="I18" s="25">
         <f>E18/D18</f>
@@ -1290,9 +1290,9 @@
         <f>G18/D18</f>
         <v>0</v>
       </c>
-      <c r="L18" s="25" t="e">
+      <c r="L18" s="25">
         <f t="shared" ref="L18" si="8">H18/D18</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1329,6 +1329,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4CC4A3791A662489B933DCE278ED9EF" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1d351c8bae9503a674d5e918810dcd44">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="181236b5-734f-48d7-9705-1caf32a498ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2248fde6c30a2cffba19c8b5d271a5ad" ns3:_="">
     <xsd:import namespace="181236b5-734f-48d7-9705-1caf32a498ff"/>
@@ -1506,12 +1512,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68293338-B565-439A-94CC-EAFE4BA1AF8F}">
   <ds:schemaRefs>
@@ -1521,6 +1521,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{655DB771-77BE-4CAC-8E6B-689F7EC99628}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="181236b5-734f-48d7-9705-1caf32a498ff"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C945D8A9-5771-40CB-B9B4-CC69662F48BA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1536,20 +1552,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{655DB771-77BE-4CAC-8E6B-689F7EC99628}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="181236b5-734f-48d7-9705-1caf32a498ff"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/reports/Report_MW_Navigations.xlsx
+++ b/docs/reports/Report_MW_Navigations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\eul0711\Documents\GitHub\matrix-web-fe-tests\docs\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TA\matrix-web-fe-tests\docs\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A4A7D8-47AD-4B49-BA59-94E12D5C4B69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D286C841-C7A4-4D6F-8768-201958E5D27C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15780" tabRatio="896" xr2:uid="{83F72AC4-B475-4A60-81FE-A957F55E1918}"/>
+    <workbookView xWindow="-19260" yWindow="780" windowWidth="19320" windowHeight="15480" tabRatio="896" xr2:uid="{83F72AC4-B475-4A60-81FE-A957F55E1918}"/>
   </bookViews>
   <sheets>
     <sheet name="Funzionalità 29.01" sheetId="9" r:id="rId1"/>
@@ -746,7 +746,7 @@
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D54" sqref="D54"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,7 +793,7 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="7">
         <f>D18</f>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D3" s="5">
         <f>E18</f>
@@ -1052,9 +1052,11 @@
       </c>
       <c r="C13" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-      <c r="D13" s="29"/>
+        <v>KO</v>
+      </c>
+      <c r="D13" s="29">
+        <v>8</v>
+      </c>
       <c r="E13" s="27">
         <v>0</v>
       </c>
@@ -1068,21 +1070,21 @@
         <f>IF('Funzionalità 29.01'!D13-D13&lt;0, 0, 'Funzionalità 29.01'!D13-D13)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="17" t="e">
+      <c r="I13" s="17">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" s="17" t="e">
+        <v>0</v>
+      </c>
+      <c r="J13" s="17">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K13" s="17" t="e">
+        <v>0</v>
+      </c>
+      <c r="K13" s="17">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L13" s="17" t="e">
+        <v>0</v>
+      </c>
+      <c r="L13" s="17">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1260,7 +1262,7 @@
       <c r="C18" s="32"/>
       <c r="D18" s="24">
         <f>SUM(D9:D17)</f>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E18" s="24">
         <f>SUM(E9:E17)</f>
@@ -1329,12 +1331,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4CC4A3791A662489B933DCE278ED9EF" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1d351c8bae9503a674d5e918810dcd44">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="181236b5-734f-48d7-9705-1caf32a498ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2248fde6c30a2cffba19c8b5d271a5ad" ns3:_="">
     <xsd:import namespace="181236b5-734f-48d7-9705-1caf32a498ff"/>
@@ -1512,6 +1508,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68293338-B565-439A-94CC-EAFE4BA1AF8F}">
   <ds:schemaRefs>
@@ -1521,22 +1523,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{655DB771-77BE-4CAC-8E6B-689F7EC99628}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="181236b5-734f-48d7-9705-1caf32a498ff"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C945D8A9-5771-40CB-B9B4-CC69662F48BA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1552,4 +1538,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{655DB771-77BE-4CAC-8E6B-689F7EC99628}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="181236b5-734f-48d7-9705-1caf32a498ff"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>